--- a/ImageSuggestion/SectionScoring/lineword_no_shiji_0.0/tfpn/TPFPcutScore.xlsx
+++ b/ImageSuggestion/SectionScoring/lineword_no_shiji_0.0/tfpn/TPFPcutScore.xlsx
@@ -1421,6 +1421,7 @@
         <c:axId val="512027544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="35"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3082,8 +3083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/ImageSuggestion/SectionScoring/lineword_no_shiji_0.0/tfpn/TPFPcutScore.xlsx
+++ b/ImageSuggestion/SectionScoring/lineword_no_shiji_0.0/tfpn/TPFPcutScore.xlsx
@@ -21,8 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1:$A$379</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$1:$A$879</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$1:$B$499</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1:$B$499</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -1362,7 +1361,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="0"/>
+        <c:gapWidth val="100"/>
         <c:axId val="512028528"/>
         <c:axId val="512027544"/>
       </c:barChart>
@@ -1529,7 +1528,7 @@
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2664,14 +2663,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
